--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft1).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft1).xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform\Python_Application\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63048D4D-C0A4-4AC3-9331-A114BBD7B17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1950" yWindow="15" windowWidth="23235" windowHeight="15465" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 2" sheetId="1" r:id="rId1"/>
     <sheet name="Stage 3" sheetId="2" r:id="rId2"/>
     <sheet name="Obstacles" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="95">
   <si>
     <t>Marking type</t>
   </si>
@@ -63,76 +69,79 @@
     <t>Tile</t>
   </si>
   <si>
+    <t>TMP1S2d4:TMP1S2d4:1272838</t>
+  </si>
+  <si>
+    <t>TMP1S2f3:TMP1S2f3:1272848</t>
+  </si>
+  <si>
+    <t>TMP1S2f4:TMP1S2f4:1272847</t>
+  </si>
+  <si>
+    <t>TMP1S2e1:TMP1S2e1:1272845</t>
+  </si>
+  <si>
+    <t>TMP1S2e2:TMP1S2e2:1272844</t>
+  </si>
+  <si>
+    <t>TMP1S2e3:TMP1S2e3:1272843</t>
+  </si>
+  <si>
+    <t>TMP1S2e4:TMP1S2e4:1272842</t>
+  </si>
+  <si>
     <t>TMP1S2d1:TMP1S2d1:1272840</t>
   </si>
   <si>
+    <t>TMP1S2d2:TMP1S2d2:1272839</t>
+  </si>
+  <si>
+    <t>TMP1S2d3:TMP1S2d3:1272837</t>
+  </si>
+  <si>
+    <t>TMP1S2c1:TMP1S2c1:1272835</t>
+  </si>
+  <si>
+    <t>TMP1S2c2:TMP1S2c2:1272834</t>
+  </si>
+  <si>
+    <t>TMP1S2c3:TMP1S2c3:1272833</t>
+  </si>
+  <si>
+    <t>TMP1S2f2:TMP1S2f2:1272849</t>
+  </si>
+  <si>
     <t>TMP1S2c4:TMP1S2c4:1272832</t>
   </si>
   <si>
+    <t>TMP1S2b2:TMP1S2b2:1272829</t>
+  </si>
+  <si>
+    <t>TMP1S2b3:TMP1S2b3:1272828</t>
+  </si>
+  <si>
+    <t>TMP1S2b4:TMP1S2b4:1272827</t>
+  </si>
+  <si>
+    <t>TMP1S2a4:TMP1S2a4:1272825</t>
+  </si>
+  <si>
+    <t>TMP1S2a3:TMP1S2a3:1272824</t>
+  </si>
+  <si>
+    <t>TMP1S2a2:TMP1S2a2:1272823</t>
+  </si>
+  <si>
+    <t>TMP1S2a1:TMP1S2a1:1272822</t>
+  </si>
+  <si>
     <t>TMP1S2b1:TMP1S2b1:1272830</t>
   </si>
   <si>
-    <t>TMP1S2b2:TMP1S2b2:1272829</t>
-  </si>
-  <si>
-    <t>TMP1S2b3:TMP1S2b3:1272828</t>
-  </si>
-  <si>
-    <t>TMP1S2b4:TMP1S2b4:1272827</t>
-  </si>
-  <si>
-    <t>TMP1S2a4:TMP1S2a4:1272825</t>
-  </si>
-  <si>
-    <t>TMP1S2a3:TMP1S2a3:1272824</t>
-  </si>
-  <si>
-    <t>TMP1S2a2:TMP1S2a2:1272823</t>
-  </si>
-  <si>
-    <t>TMP1S2a1:TMP1S2a1:1272822</t>
-  </si>
-  <si>
-    <t>TMP1S2c1:TMP1S2c1:1272835</t>
-  </si>
-  <si>
-    <t>TMP1S2d3:TMP1S2d3:1272837</t>
-  </si>
-  <si>
-    <t>TMP1S2d4:TMP1S2d4:1272838</t>
-  </si>
-  <si>
-    <t>TMP1S2d2:TMP1S2d2:1272839</t>
-  </si>
-  <si>
-    <t>TMP1S2c3:TMP1S2c3:1272833</t>
-  </si>
-  <si>
-    <t>TMP1S2e4:TMP1S2e4:1272842</t>
-  </si>
-  <si>
-    <t>TMP1S2e2:TMP1S2e2:1272844</t>
-  </si>
-  <si>
-    <t>TMP1S2e1:TMP1S2e1:1272845</t>
-  </si>
-  <si>
-    <t>TMP1S2f4:TMP1S2f4:1272847</t>
-  </si>
-  <si>
-    <t>TMP1S2f3:TMP1S2f3:1272848</t>
-  </si>
-  <si>
-    <t>TMP1S2f2:TMP1S2f2:1272849</t>
-  </si>
-  <si>
     <t>TMP1S2f1:TMP1S2f1:1272850</t>
   </si>
   <si>
-    <t>TMP1S2e3:TMP1S2e3:1272843</t>
-  </si>
-  <si>
-    <t>TMP1S2c2:TMP1S2c2:1272834</t>
+    <t>TMP2S2a4:TMP2S2a4:1272852</t>
   </si>
   <si>
     <t>TMP2S2a3:TMP2S2a3:1272853</t>
@@ -156,203 +165,155 @@
     <t>TMP2S2b1:TMP2S2b1:1272860</t>
   </si>
   <si>
-    <t>TMP2S2a4:TMP2S2a4:1272852</t>
+    <t>TMP3S2b1:TMP3S2b1:1272868</t>
+  </si>
+  <si>
+    <t>TMP3S2a1:TMP3S2a1:1272869</t>
+  </si>
+  <si>
+    <t>TMP4S2a4:TMP4S2a4:1272875</t>
+  </si>
+  <si>
+    <t>TMP4S2a3:TMP4S2a3:1272876</t>
+  </si>
+  <si>
+    <t>TMP4S2a2:TMP4S2a2:1272877</t>
+  </si>
+  <si>
+    <t>TMP4S2a1:TMP4S2a1:1272878</t>
+  </si>
+  <si>
+    <t>TMP3S2a3:TMP3S2a3:1272867</t>
+  </si>
+  <si>
+    <t>TMP3S2b3:TMP3S2b3:1272866</t>
   </si>
   <si>
     <t>TMP3S2b2:TMP3S2b2:1272865</t>
   </si>
   <si>
-    <t>TMP3S2a1:TMP3S2a1:1272869</t>
+    <t>TMP3S2a4:TMP3S2a4:1272863</t>
   </si>
   <si>
     <t>TMP3S2a2:TMP3S2a2:1272864</t>
   </si>
   <si>
-    <t>TMP3S2b1:TMP3S2b1:1272868</t>
-  </si>
-  <si>
-    <t>TMP3S2a3:TMP3S2a3:1272867</t>
-  </si>
-  <si>
-    <t>TMP3S2b3:TMP3S2b3:1272866</t>
-  </si>
-  <si>
     <t>TMP3S2b4:TMP3S2b4:1272862</t>
   </si>
   <si>
-    <t>TMP3S2a4:TMP3S2a4:1272863</t>
-  </si>
-  <si>
-    <t>TMP4S2a2:TMP4S2a2:1272877</t>
-  </si>
-  <si>
-    <t>TMP4S2a3:TMP4S2a3:1272876</t>
+    <t>TMP4S2b4:TMP4S2b4:1272871</t>
+  </si>
+  <si>
+    <t>TMP4S2b1:TMP4S2b1:1272872</t>
+  </si>
+  <si>
+    <t>TMP4S2b2:TMP4S2b2:1272873</t>
   </si>
   <si>
     <t>TMP4S2b3:TMP4S2b3:1272874</t>
   </si>
   <si>
-    <t>TMP4S2b2:TMP4S2b2:1272873</t>
-  </si>
-  <si>
-    <t>TMP4S2b1:TMP4S2b1:1272872</t>
-  </si>
-  <si>
-    <t>TMP4S2b4:TMP4S2b4:1272871</t>
-  </si>
-  <si>
-    <t>TMP4S2a1:TMP4S2a1:1272878</t>
-  </si>
-  <si>
-    <t>TMP4S2a4:TMP4S2a4:1272875</t>
+    <t>TMP5S2a4:TMP5S2a4:1272880</t>
+  </si>
+  <si>
+    <t>TMP5S2a3:TMP5S2a3:1272881</t>
+  </si>
+  <si>
+    <t>TMP5S2a2:TMP5S2a2:1272882</t>
   </si>
   <si>
     <t>TMP5S2a1:TMP5S2a1:1272883</t>
   </si>
   <si>
-    <t>TMP5S2a2:TMP5S2a2:1272882</t>
-  </si>
-  <si>
-    <t>TMP5S2a3:TMP5S2a3:1272881</t>
-  </si>
-  <si>
-    <t>TMP5S2a4:TMP5S2a4:1272880</t>
+    <t>TMP6S2a2:TMP6S2a2:1272889</t>
+  </si>
+  <si>
+    <t>TMP6S2a1:TMP6S2a1:1272890</t>
+  </si>
+  <si>
+    <t>TMP6S2b3:TMP6S2b3:1272888</t>
+  </si>
+  <si>
+    <t>TMP6S2b2:TMP6S2b2:1272885</t>
   </si>
   <si>
     <t>TMP6S2b1:TMP6S2b1:1272886</t>
   </si>
   <si>
-    <t>TMP6S2b2:TMP6S2b2:1272885</t>
-  </si>
-  <si>
-    <t>TMP6S2a1:TMP6S2a1:1272890</t>
-  </si>
-  <si>
-    <t>TMP6S2a2:TMP6S2a2:1272889</t>
-  </si>
-  <si>
-    <t>TMP6S2b3:TMP6S2b3:1272888</t>
-  </si>
-  <si>
     <t>TMP6S2b4:TMP6S2b4:1272887</t>
   </si>
   <si>
+    <t>TMP7S2c2:TMP7S2c2:1272903</t>
+  </si>
+  <si>
+    <t>TMP7S2b3:TMP7S2b3:1272892</t>
+  </si>
+  <si>
+    <t>TMP7S2a3:TMP7S2a3:1272893</t>
+  </si>
+  <si>
+    <t>TMP7S2b2:TMP7S2b2:1272894</t>
+  </si>
+  <si>
+    <t>TMP7S2b1:TMP7S2b1:1272895</t>
+  </si>
+  <si>
+    <t>TMP7S2a2:TMP7S2a2:1272896</t>
+  </si>
+  <si>
+    <t>TMP7S2a1:TMP7S2a1:1272897</t>
+  </si>
+  <si>
+    <t>TMP7S2d3:TMP7S2d3:1272899</t>
+  </si>
+  <si>
     <t>TMP7S2d2:TMP7S2d2:1272900</t>
   </si>
   <si>
-    <t>TMP7S2d3:TMP7S2d3:1272899</t>
-  </si>
-  <si>
-    <t>TMP7S2a1:TMP7S2a1:1272897</t>
-  </si>
-  <si>
-    <t>TMP7S2a2:TMP7S2a2:1272896</t>
-  </si>
-  <si>
-    <t>TMP7S2b1:TMP7S2b1:1272895</t>
-  </si>
-  <si>
-    <t>TMP7S2b2:TMP7S2b2:1272894</t>
-  </si>
-  <si>
-    <t>TMP7S2a3:TMP7S2a3:1272893</t>
-  </si>
-  <si>
-    <t>TMP7S2b3:TMP7S2b3:1272892</t>
-  </si>
-  <si>
     <t>TMP7S2d1:TMP7S2d1:1272901</t>
   </si>
   <si>
     <t>TMP7S2c3:TMP7S2c3:1272902</t>
   </si>
   <si>
-    <t>TMP7S2c2:TMP7S2c2:1272903</t>
-  </si>
-  <si>
     <t>TMP7S2c1:TMP7S2c1:1272904</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>blank</t>
   </si>
   <si>
     <t>Fitting</t>
   </si>
   <si>
+    <t>BSS.Bottle Trap:BSS.Bottle trap:1003598</t>
+  </si>
+  <si>
     <t>BSS.MIRROR CABINET.C5-MASTER BATH:BSS.MIRROR CABINET.C5-MASTER BATH:1070866</t>
   </si>
   <si>
-    <t>BSS.GOMGO.PH.GG-6106:Chrome 000:1070937</t>
+    <t>BSS.MONIC.BIB TAP.T-4L:BIB TAP:1070900</t>
+  </si>
+  <si>
+    <t>BSS.TECE.AP.9240402:Flush Plate:1070931</t>
+  </si>
+  <si>
+    <t>BSS.GESSI,BM.49001:Default:1070932</t>
   </si>
   <si>
     <t>BSS.GESSI.SM.49079:29046000:1070934</t>
   </si>
   <si>
     <t>BSS.HAND SHOWER SET.MASTER BATH:BSS.HAND SHOWER SET.MASTER BATH:1070817</t>
-  </si>
-  <si>
-    <t>BSS.Bottle Trap:BSS.Bottle trap:1003598</t>
-  </si>
-  <si>
-    <t>BSS.GOMGO.TR.GG-6108-600:Chrome 000:1070936</t>
-  </si>
-  <si>
-    <t>BSS.Shallow_FT:150 x 150MM:1016058</t>
-  </si>
-  <si>
-    <t>BSS.Shallow_FW:BSS.Shallow_FW:1017371</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1020659</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1021224</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1021335</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1021880</t>
-  </si>
-  <si>
-    <t>BSS.FLOOR DRAIN_100:BSS.FLOOR DRAIN_100:1070799</t>
-  </si>
-  <si>
-    <t>BSS.MONIC.BIB TAP.T-4L:BIB TAP:1070900</t>
-  </si>
-  <si>
-    <t>BSS.Ceiling Access Panel Opening:450 x 450MM:1070904</t>
-  </si>
-  <si>
-    <t>BSS.Ceiling Access Panel:450 x 450MM:1070905</t>
-  </si>
-  <si>
-    <t>BSS.TECE.AP.9240402:Flush Plate:1070931</t>
-  </si>
-  <si>
-    <t>BSS.GESSI,BM.49001:Default:1070932</t>
-  </si>
-  <si>
-    <t>BSS.LAUFEN.WC.820714:820959000 White:1070933</t>
-  </si>
-  <si>
-    <t>BSS.FLOOR DRAIN_150:BSS.FLOOR DRAIN_150:1070898</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,13 +376,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -459,7 +428,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -493,6 +462,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -527,9 +497,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -702,14 +673,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,9 +724,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -770,7 +741,7 @@
         <v>450</v>
       </c>
       <c r="F2">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -779,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -791,9 +762,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -805,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-25</v>
+        <v>925</v>
       </c>
       <c r="F3">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -817,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -829,9 +800,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -843,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-330</v>
+        <v>925</v>
       </c>
       <c r="F4">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -855,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -867,9 +838,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -881,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-330</v>
+        <v>470</v>
       </c>
       <c r="F5">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -893,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -905,9 +876,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -919,10 +890,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-330</v>
+        <v>470</v>
       </c>
       <c r="F6">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -931,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -943,9 +914,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -957,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-330</v>
+        <v>470</v>
       </c>
       <c r="F7">
-        <v>-775</v>
+        <v>1025</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -969,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -981,9 +952,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -995,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>-1330</v>
+        <v>470</v>
       </c>
       <c r="F8">
         <v>-775</v>
@@ -1007,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1019,9 +990,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1033,10 +1004,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>-1330</v>
+        <v>450</v>
       </c>
       <c r="F9">
-        <v>-175</v>
+        <v>1025</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1045,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1057,9 +1028,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1071,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>-1330</v>
+        <v>450</v>
       </c>
       <c r="F10">
         <v>425</v>
@@ -1083,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1095,9 +1066,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1109,10 +1080,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>-1330</v>
+        <v>450</v>
       </c>
       <c r="F11">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1121,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1133,7 +1104,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>236</v>
       </c>
@@ -1159,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1171,9 +1142,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1185,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>450</v>
+        <v>-25</v>
       </c>
       <c r="F13">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1197,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1209,9 +1180,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1223,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>450</v>
+        <v>-25</v>
       </c>
       <c r="F14">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1235,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1247,9 +1218,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1261,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>450</v>
+        <v>925</v>
       </c>
       <c r="F15">
         <v>425</v>
@@ -1273,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1285,9 +1256,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1302,7 +1273,7 @@
         <v>-25</v>
       </c>
       <c r="F16">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1311,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1323,9 +1294,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1337,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>470</v>
+        <v>-330</v>
       </c>
       <c r="F17">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1349,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1361,9 +1332,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -1375,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>470</v>
+        <v>-330</v>
       </c>
       <c r="F18">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1387,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1399,9 +1370,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1413,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>470</v>
+        <v>-330</v>
       </c>
       <c r="F19">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1425,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1437,9 +1408,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -1451,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>925</v>
+        <v>-1330</v>
       </c>
       <c r="F20">
         <v>-775</v>
@@ -1463,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1475,9 +1446,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -1489,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>925</v>
+        <v>-1330</v>
       </c>
       <c r="F21">
         <v>-175</v>
@@ -1501,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1513,9 +1484,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -1527,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>925</v>
+        <v>-1330</v>
       </c>
       <c r="F22">
         <v>425</v>
@@ -1539,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1551,9 +1522,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -1565,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>925</v>
+        <v>-1330</v>
       </c>
       <c r="F23">
         <v>1025</v>
@@ -1577,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1589,9 +1560,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -1603,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>470</v>
+        <v>-330</v>
       </c>
       <c r="F24">
         <v>1025</v>
@@ -1615,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1627,9 +1598,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1641,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>-25</v>
+        <v>925</v>
       </c>
       <c r="F25">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1653,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1665,9 +1636,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1682,7 +1653,7 @@
         <v>-300</v>
       </c>
       <c r="F26">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1691,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1703,9 +1674,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -1720,7 +1691,7 @@
         <v>-300</v>
       </c>
       <c r="F27">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1729,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1741,9 +1712,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -1758,7 +1729,7 @@
         <v>-300</v>
       </c>
       <c r="F28">
-        <v>1025</v>
+        <v>425</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1767,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1779,9 +1750,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -1793,10 +1764,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="F29">
-        <v>-775</v>
+        <v>1025</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1805,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1817,9 +1788,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -1834,7 +1805,7 @@
         <v>300</v>
       </c>
       <c r="F30">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1843,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1855,9 +1826,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -1872,7 +1843,7 @@
         <v>300</v>
       </c>
       <c r="F31">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -1881,7 +1852,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1893,9 +1864,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -1910,7 +1881,7 @@
         <v>300</v>
       </c>
       <c r="F32">
-        <v>1025</v>
+        <v>425</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1919,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1931,9 +1902,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -1945,10 +1916,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="F33">
-        <v>-775</v>
+        <v>1025</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -1957,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -1969,9 +1940,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -1986,7 +1957,7 @@
         <v>150</v>
       </c>
       <c r="F34">
-        <v>-25</v>
+        <v>-775</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -1995,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2007,7 +1978,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>264</v>
       </c>
@@ -2033,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2045,9 +2016,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -2056,13 +2027,13 @@
         <v>49</v>
       </c>
       <c r="D36">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="E36">
-        <v>750</v>
+        <v>-900</v>
       </c>
       <c r="F36">
-        <v>-25</v>
+        <v>-775</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -2071,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2083,9 +2054,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
@@ -2094,13 +2065,13 @@
         <v>50</v>
       </c>
       <c r="D37">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="E37">
-        <v>150</v>
+        <v>-900</v>
       </c>
       <c r="F37">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -2109,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2121,9 +2092,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -2132,13 +2103,13 @@
         <v>51</v>
       </c>
       <c r="D38">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="E38">
-        <v>-450</v>
+        <v>-900</v>
       </c>
       <c r="F38">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -2147,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2159,9 +2130,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -2170,13 +2141,13 @@
         <v>52</v>
       </c>
       <c r="D39">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="E39">
-        <v>-450</v>
+        <v>-900</v>
       </c>
       <c r="F39">
-        <v>-25</v>
+        <v>1025</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -2185,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2197,9 +2168,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -2211,10 +2182,10 @@
         <v>1800</v>
       </c>
       <c r="E40">
-        <v>-900</v>
+        <v>-450</v>
       </c>
       <c r="F40">
-        <v>-25</v>
+        <v>-775</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -2223,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2235,9 +2206,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -2249,10 +2220,10 @@
         <v>1800</v>
       </c>
       <c r="E41">
-        <v>-900</v>
+        <v>-450</v>
       </c>
       <c r="F41">
-        <v>-775</v>
+        <v>-25</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -2261,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -2273,9 +2244,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -2287,33 +2258,33 @@
         <v>1800</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F42">
-        <v>425</v>
+        <v>-25</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="L42">
-        <v>600</v>
+        <v>1940</v>
       </c>
       <c r="M42">
         <v>2705</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -2325,33 +2296,33 @@
         <v>1800</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="F43">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="L43">
-        <v>600</v>
+        <v>1940</v>
       </c>
       <c r="M43">
         <v>2705</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -2363,33 +2334,33 @@
         <v>1800</v>
       </c>
       <c r="E44">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="F44">
-        <v>-175</v>
+        <v>-25</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="L44">
-        <v>600</v>
+        <v>1940</v>
       </c>
       <c r="M44">
         <v>2705</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -2401,33 +2372,33 @@
         <v>1800</v>
       </c>
       <c r="E45">
-        <v>300</v>
+        <v>-900</v>
       </c>
       <c r="F45">
-        <v>425</v>
+        <v>-25</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="L45">
-        <v>600</v>
+        <v>1940</v>
       </c>
       <c r="M45">
         <v>2705</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -2442,7 +2413,7 @@
         <v>300</v>
       </c>
       <c r="F46">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -2451,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2463,9 +2434,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -2480,7 +2451,7 @@
         <v>300</v>
       </c>
       <c r="F47">
-        <v>-775</v>
+        <v>1025</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -2489,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -2501,9 +2472,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -2515,10 +2486,10 @@
         <v>1800</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F48">
-        <v>1025</v>
+        <v>425</v>
       </c>
       <c r="G48">
         <v>4</v>
@@ -2527,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2539,9 +2510,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -2553,10 +2524,10 @@
         <v>1800</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F49">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -2565,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2577,9 +2548,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
@@ -2603,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2615,9 +2586,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
@@ -2632,7 +2603,7 @@
         <v>-25</v>
       </c>
       <c r="F51">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -2641,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2653,9 +2624,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -2670,7 +2641,7 @@
         <v>-25</v>
       </c>
       <c r="F52">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G52">
         <v>5</v>
@@ -2679,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2691,9 +2662,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
@@ -2717,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2729,9 +2700,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
@@ -2743,10 +2714,10 @@
         <v>960</v>
       </c>
       <c r="E54">
-        <v>500</v>
+        <v>-120</v>
       </c>
       <c r="F54">
-        <v>-150</v>
+        <v>450</v>
       </c>
       <c r="G54">
         <v>6</v>
@@ -2755,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2767,9 +2738,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -2781,10 +2752,10 @@
         <v>960</v>
       </c>
       <c r="E55">
-        <v>500</v>
+        <v>-120</v>
       </c>
       <c r="F55">
-        <v>-750</v>
+        <v>1050</v>
       </c>
       <c r="G55">
         <v>6</v>
@@ -2793,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2805,9 +2776,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
@@ -2819,10 +2790,10 @@
         <v>960</v>
       </c>
       <c r="E56">
-        <v>-120</v>
+        <v>-100</v>
       </c>
       <c r="F56">
-        <v>1050</v>
+        <v>-150</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -2831,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2843,9 +2814,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
@@ -2857,10 +2828,10 @@
         <v>960</v>
       </c>
       <c r="E57">
-        <v>-120</v>
+        <v>500</v>
       </c>
       <c r="F57">
-        <v>450</v>
+        <v>-750</v>
       </c>
       <c r="G57">
         <v>6</v>
@@ -2869,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2881,9 +2852,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
@@ -2895,7 +2866,7 @@
         <v>960</v>
       </c>
       <c r="E58">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="F58">
         <v>-150</v>
@@ -2907,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -2919,7 +2890,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>279</v>
       </c>
@@ -2945,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -2957,9 +2928,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -2968,7 +2939,7 @@
         <v>73</v>
       </c>
       <c r="D60">
-        <v>2640</v>
+        <v>2040</v>
       </c>
       <c r="E60">
         <v>600</v>
@@ -2983,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -2995,9 +2966,9 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -3006,7 +2977,7 @@
         <v>74</v>
       </c>
       <c r="D61">
-        <v>2640</v>
+        <v>1350</v>
       </c>
       <c r="E61">
         <v>150</v>
@@ -3021,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3033,9 +3004,9 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -3047,7 +3018,7 @@
         <v>750</v>
       </c>
       <c r="E62">
-        <v>1200</v>
+        <v>150</v>
       </c>
       <c r="F62">
         <v>-25</v>
@@ -3059,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -3071,9 +3042,9 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -3082,7 +3053,7 @@
         <v>76</v>
       </c>
       <c r="D63">
-        <v>750</v>
+        <v>1350</v>
       </c>
       <c r="E63">
         <v>600</v>
@@ -3097,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -3109,7 +3080,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>286</v>
       </c>
@@ -3135,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -3147,9 +3118,9 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
@@ -3158,7 +3129,7 @@
         <v>78</v>
       </c>
       <c r="D65">
-        <v>1350</v>
+        <v>750</v>
       </c>
       <c r="E65">
         <v>600</v>
@@ -3173,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3185,9 +3156,9 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
@@ -3199,7 +3170,7 @@
         <v>750</v>
       </c>
       <c r="E66">
-        <v>150</v>
+        <v>1200</v>
       </c>
       <c r="F66">
         <v>-25</v>
@@ -3211,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3223,9 +3194,9 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -3234,7 +3205,7 @@
         <v>80</v>
       </c>
       <c r="D67">
-        <v>1350</v>
+        <v>2640</v>
       </c>
       <c r="E67">
         <v>150</v>
@@ -3249,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -3261,9 +3232,9 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
@@ -3275,7 +3246,7 @@
         <v>2640</v>
       </c>
       <c r="E68">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="F68">
         <v>-25</v>
@@ -3287,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3299,9 +3270,9 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -3310,10 +3281,10 @@
         <v>82</v>
       </c>
       <c r="D69">
-        <v>2040</v>
+        <v>2640</v>
       </c>
       <c r="E69">
-        <v>150</v>
+        <v>1050</v>
       </c>
       <c r="F69">
         <v>-25</v>
@@ -3325,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3337,9 +3308,9 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -3351,7 +3322,7 @@
         <v>2040</v>
       </c>
       <c r="E70">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="F70">
         <v>-25</v>
@@ -3363,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -3375,7 +3346,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>294</v>
       </c>
@@ -3401,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -3419,14 +3390,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3470,24 +3455,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
       <c r="D2">
-        <v>1800</v>
+        <v>1505</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="F2">
-        <v>125</v>
+        <v>-443</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -3496,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3508,726 +3493,232 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>1800</v>
       </c>
       <c r="E3">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>-375</v>
+        <v>125</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>6</v>
       </c>
       <c r="I3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1940</v>
+      </c>
+      <c r="M3">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
         <v>87</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>600</v>
-      </c>
-      <c r="M3">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>146</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>-600</v>
+        <v>1580</v>
       </c>
       <c r="E4">
-        <v>175</v>
+        <v>-135</v>
       </c>
       <c r="F4">
-        <v>-50</v>
+        <v>-725</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>6</v>
       </c>
       <c r="I4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1940</v>
+      </c>
+      <c r="M4">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>143</v>
+      </c>
+      <c r="B5" t="s">
         <v>87</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>960</v>
-      </c>
-      <c r="M4">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>134</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>-598</v>
+        <v>1692</v>
       </c>
       <c r="E5">
-        <v>-185</v>
+        <v>-450</v>
       </c>
       <c r="F5">
-        <v>-181</v>
+        <v>-175</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>6</v>
       </c>
       <c r="I5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1940</v>
+      </c>
+      <c r="M5">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
         <v>87</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>960</v>
-      </c>
-      <c r="M5">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6">
+        <v>1740</v>
+      </c>
+      <c r="E6">
         <v>450</v>
       </c>
-      <c r="E6">
-        <v>1505</v>
-      </c>
       <c r="F6">
-        <v>557</v>
-      </c>
-      <c r="G6" t="s">
-        <v>85</v>
+        <v>-175</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
       </c>
       <c r="H6">
         <v>6</v>
       </c>
       <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1940</v>
+      </c>
+      <c r="M6">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>146</v>
+      </c>
+      <c r="B7" t="s">
         <v>87</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>2900</v>
-      </c>
-      <c r="M6">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
-        <v>148</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7">
-        <v>1440</v>
+        <v>-600</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F7">
-        <v>1175</v>
-      </c>
-      <c r="G7" t="s">
-        <v>85</v>
+        <v>-50</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>960</v>
+      </c>
+      <c r="M7">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>134</v>
+      </c>
+      <c r="B8" t="s">
         <v>87</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>2900</v>
-      </c>
-      <c r="M7">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
-        <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8">
-        <v>1712</v>
+        <v>-598</v>
       </c>
       <c r="E8">
-        <v>1505</v>
+        <v>-185</v>
       </c>
       <c r="F8">
-        <v>-75</v>
-      </c>
-      <c r="G8" t="s">
-        <v>85</v>
+        <v>-181</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
       </c>
       <c r="H8">
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>2900</v>
+        <v>960</v>
       </c>
       <c r="M8">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9">
-        <v>2090</v>
-      </c>
-      <c r="E9">
-        <v>1150</v>
-      </c>
-      <c r="F9">
-        <v>-77</v>
-      </c>
-      <c r="G9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="I9" t="s">
-        <v>87</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>2900</v>
-      </c>
-      <c r="M9">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
-        <v>72</v>
-      </c>
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10">
-        <v>375</v>
-      </c>
-      <c r="E10">
-        <v>1630</v>
-      </c>
-      <c r="F10">
-        <v>-60</v>
-      </c>
-      <c r="G10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
-      </c>
-      <c r="I10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>2900</v>
-      </c>
-      <c r="M10">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1">
-        <v>80</v>
-      </c>
-      <c r="B11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11">
-        <v>525</v>
-      </c>
-      <c r="E11">
-        <v>1550</v>
-      </c>
-      <c r="F11">
-        <v>-30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
-      </c>
-      <c r="I11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>2900</v>
-      </c>
-      <c r="M11">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
-        <v>84</v>
-      </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12">
-        <v>1035</v>
-      </c>
-      <c r="E12">
-        <v>1550</v>
-      </c>
-      <c r="F12">
-        <v>-30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="I12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>2900</v>
-      </c>
-      <c r="M12">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1">
-        <v>99</v>
-      </c>
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13">
-        <v>150</v>
-      </c>
-      <c r="E13">
-        <v>780</v>
-      </c>
-      <c r="F13">
-        <v>190</v>
-      </c>
-      <c r="G13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="I13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>2900</v>
-      </c>
-      <c r="M13">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
-        <v>129</v>
-      </c>
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14">
-        <v>2090</v>
-      </c>
-      <c r="E14">
-        <v>1150</v>
-      </c>
-      <c r="F14">
-        <v>-50</v>
-      </c>
-      <c r="G14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14">
-        <v>6</v>
-      </c>
-      <c r="I14" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>2900</v>
-      </c>
-      <c r="M14">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1">
-        <v>140</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15">
-        <v>1035</v>
-      </c>
-      <c r="E15">
-        <v>1580</v>
-      </c>
-      <c r="F15">
-        <v>275</v>
-      </c>
-      <c r="G15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>2900</v>
-      </c>
-      <c r="M15">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1">
-        <v>141</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16">
-        <v>175</v>
-      </c>
-      <c r="E16">
-        <v>175</v>
-      </c>
-      <c r="F16">
-        <v>-100</v>
-      </c>
-      <c r="G16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
-      <c r="I16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>2900</v>
-      </c>
-      <c r="M16">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="1">
-        <v>142</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17">
-        <v>505</v>
-      </c>
-      <c r="E17">
-        <v>505</v>
-      </c>
-      <c r="F17">
-        <v>-90</v>
-      </c>
-      <c r="G17" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>87</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>2900</v>
-      </c>
-      <c r="M17">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1">
-        <v>143</v>
-      </c>
-      <c r="B18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18">
-        <v>1350</v>
-      </c>
-      <c r="E18">
-        <v>1692</v>
-      </c>
-      <c r="F18">
-        <v>825</v>
-      </c>
-      <c r="G18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="I18" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>2900</v>
-      </c>
-      <c r="M18">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="1">
-        <v>144</v>
-      </c>
-      <c r="B19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19">
-        <v>450</v>
-      </c>
-      <c r="E19">
-        <v>1740</v>
-      </c>
-      <c r="F19">
-        <v>825</v>
-      </c>
-      <c r="G19" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19">
-        <v>6</v>
-      </c>
-      <c r="I19" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>2900</v>
-      </c>
-      <c r="M19">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="1">
-        <v>145</v>
-      </c>
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20">
-        <v>1475</v>
-      </c>
-      <c r="E20">
-        <v>1590</v>
-      </c>
-      <c r="F20">
-        <v>-54</v>
-      </c>
-      <c r="G20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20">
-        <v>6</v>
-      </c>
-      <c r="I20" t="s">
-        <v>87</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>2900</v>
-      </c>
-      <c r="M20">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="1">
-        <v>139</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21">
-        <v>1675</v>
-      </c>
-      <c r="E21">
-        <v>1505</v>
-      </c>
-      <c r="F21">
-        <v>-25</v>
-      </c>
-      <c r="G21" t="s">
-        <v>85</v>
-      </c>
-      <c r="H21">
-        <v>6</v>
-      </c>
-      <c r="I21" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>2900</v>
-      </c>
-      <c r="M21">
-        <v>1940</v>
+        <v>2705</v>
       </c>
     </row>
   </sheetData>
@@ -4236,14 +3727,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:15">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
